--- a/3d/input.xlsx
+++ b/3d/input.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-single-material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A6E373-8ECB-4CA8-9BC6-E14AE1D00C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C80B5A5-4646-4734-8141-EB866A33730F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
     <sheet name="BC" sheetId="5" r:id="rId2"/>
     <sheet name="PreservedVolume" sheetId="3" r:id="rId3"/>
+    <sheet name="Materials" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>ForceX</t>
   </si>
@@ -116,10 +117,73 @@
     <t>Density</t>
   </si>
   <si>
-    <t>0, 0, 0.5</t>
-  </si>
-  <si>
-    <t>1, 1, 0.5</t>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Elasticity</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>CostFraction</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Material A</t>
+  </si>
+  <si>
+    <t>FilterBC</t>
+  </si>
+  <si>
+    <t>1: Only density | 2 and 3: Projection with eta and beta</t>
+  </si>
+  <si>
+    <t>Number of elements in x direction</t>
+  </si>
+  <si>
+    <t>Number of elements in y direction</t>
+  </si>
+  <si>
+    <t>Number of elements in z direction</t>
+  </si>
+  <si>
+    <t>Volume constraint</t>
+  </si>
+  <si>
+    <t>Cost constraint</t>
+  </si>
+  <si>
+    <t>Penalty factor for SIMP</t>
+  </si>
+  <si>
+    <t>0: Dirichlect | 1: Neumann</t>
+  </si>
+  <si>
+    <t>Maximum number of design cycles</t>
+  </si>
+  <si>
+    <t>Minimum move in optimality criterion process</t>
+  </si>
+  <si>
+    <t>Filter radius</t>
+  </si>
+  <si>
+    <t>Projection parameter</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -169,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,6 +247,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,112 +574,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="46.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B11" s="2">
+        <f>2*SQRT(3)</f>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -616,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D73A997-7B04-44B2-BBB4-C23AFDAA7229}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,10 +792,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -701,24 +837,14 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -838,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6D0551-57CC-4FE8-94A6-D48EF408F42E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -889,4 +1015,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07854D32-7C5D-4986-8471-E867DCA251D5}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3d/input.xlsx
+++ b/3d/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C80B5A5-4646-4734-8141-EB866A33730F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16184DD-8AD2-4B06-AB20-CF0E11722E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>44</v>

--- a/3d/input.xlsx
+++ b/3d/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16184DD-8AD2-4B06-AB20-CF0E11722E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB2F833-3877-4988-9B20-2F263C3F0E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>ForceX</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Penalty factor for SIMP</t>
   </si>
   <si>
-    <t>0: Dirichlect | 1: Neumann</t>
-  </si>
-  <si>
     <t>Maximum number of design cycles</t>
   </si>
   <si>
@@ -184,6 +181,21 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>0: Constant | 1: Reflect | 2: Nearest | 3: Mirror | 4: Wrap</t>
+  </si>
+  <si>
+    <t>Material B</t>
+  </si>
+  <si>
+    <t>Material C</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>green</t>
   </si>
 </sst>
 </file>
@@ -233,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,13 +254,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -258,6 +264,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -574,172 +583,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="46.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="8">
         <v>45</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>45</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>45</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>0.2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>500</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B11" s="5">
         <v>0</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>100</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
-        <f>2*SQRT(3)</f>
-        <v>3.4641016151377544</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="B12" s="5">
+        <v>1.73</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="5">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>45</v>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +761,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,10 +799,10 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2">
@@ -814,10 +822,10 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2"/>
@@ -837,8 +845,8 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -850,8 +858,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -863,8 +871,8 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -876,8 +884,8 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -889,8 +897,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -902,8 +910,8 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -915,8 +923,8 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -928,8 +936,8 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -941,8 +949,8 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -957,6 +965,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:B3" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -965,12 +976,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="13.33203125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="13.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="2"/>
     <col min="5" max="5" width="9.44140625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
@@ -990,10 +1002,10 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2">
@@ -1001,10 +1013,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2">
@@ -1022,7 +1034,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,14 +1063,14 @@
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1.0000000000000001E-9</v>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1069,31 +1081,51 @@
         <v>34</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3d/input.xlsx
+++ b/3d/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB2F833-3877-4988-9B20-2F263C3F0E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE3BB0B-041E-42BC-9B6F-2C1A3C90850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>ForceX</t>
   </si>
@@ -184,18 +184,6 @@
   </si>
   <si>
     <t>0: Constant | 1: Reflect | 2: Nearest | 3: Mirror | 4: Wrap</t>
-  </si>
-  <si>
-    <t>Material B</t>
-  </si>
-  <si>
-    <t>Material C</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>green</t>
   </si>
 </sst>
 </file>
@@ -586,7 +574,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,7 +644,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>41</v>
@@ -1034,7 +1022,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1081,51 +1069,28 @@
         <v>34</v>
       </c>
       <c r="B3" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3d/input.xlsx
+++ b/3d/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE3BB0B-041E-42BC-9B6F-2C1A3C90850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159CECE0-2514-41A4-9624-648563D4EA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>37</v>
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>38</v>
@@ -622,7 +622,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>39</v>
@@ -666,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="5">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>43</v>
@@ -699,7 +699,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>48</v>
@@ -710,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="5">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>45</v>
@@ -964,7 +964,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/3d/input.xlsx
+++ b/3d/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159CECE0-2514-41A4-9624-648563D4EA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A42BC2A-D0A8-4178-8C83-DB8290F3F4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>ForceX</t>
   </si>
@@ -102,88 +102,85 @@
     <t>EndPosition</t>
   </si>
   <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Elasticity</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>FilterBC</t>
+  </si>
+  <si>
+    <t>1: Only density | 2 and 3: Projection with eta and beta</t>
+  </si>
+  <si>
+    <t>Number of elements in x direction</t>
+  </si>
+  <si>
+    <t>Number of elements in y direction</t>
+  </si>
+  <si>
+    <t>Number of elements in z direction</t>
+  </si>
+  <si>
+    <t>Volume constraint</t>
+  </si>
+  <si>
+    <t>Penalty factor for SIMP</t>
+  </si>
+  <si>
+    <t>Maximum number of design cycles</t>
+  </si>
+  <si>
+    <t>Minimum move in optimality criterion process</t>
+  </si>
+  <si>
+    <t>Filter radius</t>
+  </si>
+  <si>
+    <t>Projection parameter</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>0: Constant | 1: Reflect | 2: Nearest | 3: Mirror | 4: Wrap</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
     <t>0, 0, 0</t>
   </si>
   <si>
     <t>1, 1, 0</t>
   </si>
   <si>
+    <t>0, 0, 1</t>
+  </si>
+  <si>
     <t>1, 1, 1</t>
   </si>
   <si>
-    <t>0, 0, 1</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Elasticity</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Void</t>
-  </si>
-  <si>
-    <t>CostFraction</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
     <t>Material A</t>
   </si>
   <si>
-    <t>FilterBC</t>
-  </si>
-  <si>
-    <t>1: Only density | 2 and 3: Projection with eta and beta</t>
-  </si>
-  <si>
-    <t>Number of elements in x direction</t>
-  </si>
-  <si>
-    <t>Number of elements in y direction</t>
-  </si>
-  <si>
-    <t>Number of elements in z direction</t>
-  </si>
-  <si>
-    <t>Volume constraint</t>
-  </si>
-  <si>
-    <t>Cost constraint</t>
-  </si>
-  <si>
-    <t>Penalty factor for SIMP</t>
-  </si>
-  <si>
-    <t>Maximum number of design cycles</t>
-  </si>
-  <si>
-    <t>Minimum move in optimality criterion process</t>
-  </si>
-  <si>
-    <t>Filter radius</t>
-  </si>
-  <si>
-    <t>Projection parameter</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>0: Constant | 1: Reflect | 2: Nearest | 3: Mirror | 4: Wrap</t>
+    <t>Material B</t>
+  </si>
+  <si>
+    <t>red</t>
   </si>
 </sst>
 </file>
@@ -233,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,6 +253,18 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -600,10 +609,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -611,10 +620,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -622,10 +631,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -636,106 +645,95 @@
         <v>0.2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +747,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,46 +785,46 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="9">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2">
+      <c r="A3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="9">
         <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>-1</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -838,9 +836,9 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -953,9 +951,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2:B3" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -964,7 +959,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,30 +979,30 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1019,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07854D32-7C5D-4986-8471-E867DCA251D5}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,26 +1025,23 @@
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1057,40 +1049,37 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D4" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3d/input.xlsx
+++ b/3d/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A42BC2A-D0A8-4178-8C83-DB8290F3F4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3D6B83-E8EC-4796-AC57-4F97542A4C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>Void</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>FilterBC</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>0: Constant | 1: Reflect | 2: Nearest | 3: Mirror | 4: Wrap</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
     <t>0, 0, 0</t>
   </si>
   <si>
@@ -174,13 +168,19 @@
     <t>1, 1, 1</t>
   </si>
   <si>
-    <t>Material A</t>
-  </si>
-  <si>
-    <t>Material B</t>
-  </si>
-  <si>
-    <t>red</t>
+    <t>TPU</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -230,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,18 +253,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,7 +571,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -612,7 +600,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -623,7 +611,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -634,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -645,7 +633,7 @@
         <v>0.2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -656,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -667,7 +655,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -678,7 +666,7 @@
         <v>0.2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -689,18 +677,18 @@
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -708,10 +696,11 @@
         <v>5</v>
       </c>
       <c r="B11" s="5">
-        <v>2</v>
+        <f>2*SQRT(3)</f>
+        <v>3.4641016151377544</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -722,7 +711,7 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -733,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -785,45 +774,45 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="2"/>
@@ -959,7 +948,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,25 +974,25 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
+      <c r="C3" s="2">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1006,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,35 +1039,35 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>0.6</v>
+        <v>5.1700000000000001E-3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>40</v>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/3d/input.xlsx
+++ b/3d/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3D6B83-E8EC-4796-AC57-4F97542A4C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA5A438-4303-40AB-A6A9-7EF28008B20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>31</v>
@@ -1005,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07854D32-7C5D-4986-8471-E867DCA251D5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/3d/input.xlsx
+++ b/3d/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA5A438-4303-40AB-A6A9-7EF28008B20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1476A6EF-7CF4-4644-A72A-371338DA5A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>ForceX</t>
   </si>
@@ -181,6 +181,21 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>0.5, 0.5, 1</t>
+  </si>
+  <si>
+    <t>ConX</t>
+  </si>
+  <si>
+    <t>ConO</t>
+  </si>
+  <si>
+    <t>Maximum change in density for convergence</t>
+  </si>
+  <si>
+    <t>Maximum change in objective for convergence</t>
   </si>
 </sst>
 </file>
@@ -568,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>31</v>
@@ -652,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>33</v>
@@ -660,68 +675,90 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5">
-        <v>0.2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B13" s="5">
         <f>2*SQRT(3)</f>
         <v>3.4641016151377544</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B14" s="5">
         <v>0.2</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B15" s="5">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -736,7 +773,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,10 +835,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -948,7 +985,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,7 +1043,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
